--- a/Modelos/Calculos_Modelos.xlsx
+++ b/Modelos/Calculos_Modelos.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\Habi\Prueba Data Science\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EBDE1F-ED7A-4AAE-8B7F-02CF944F4141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F0C7C-4A85-44C1-9BC1-2D2A950A577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="2" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="precio_m2" sheetId="1" r:id="rId1"/>
+    <sheet name="precio" sheetId="2" r:id="rId2"/>
+    <sheet name="gradient_boosting_regressor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -72,6 +74,15 @@
   </si>
   <si>
     <t>min_samples_leaf</t>
+  </si>
+  <si>
+    <t>Habitaciones &gt; 5</t>
+  </si>
+  <si>
+    <t>GradientBoostingRegressor</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
   </si>
 </sst>
 </file>
@@ -444,9 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8D8483-DCF5-4F2B-9C47-C419DAA7D73B}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -454,9 +467,12 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +521,35 @@
       <c r="Q1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -555,8 +598,35 @@
       <c r="Q2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>40</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>97809101.713543206</v>
+      </c>
+      <c r="AA2">
+        <v>0.18942114633898199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -605,8 +675,35 @@
       <c r="Q3">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3">
+        <v>60</v>
+      </c>
+      <c r="W3">
+        <v>40</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>97359861.473203897</v>
+      </c>
+      <c r="AA3">
+        <v>0.18933488428308801</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="I4" t="s">
         <v>1</v>
@@ -635,8 +732,15 @@
       <c r="Q4">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>1</v>
       </c>
@@ -664,8 +768,15 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>1</v>
       </c>
@@ -693,8 +804,15 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>1</v>
       </c>
@@ -722,8 +840,15 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>1</v>
       </c>
@@ -751,8 +876,15 @@
       <c r="Q8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>1</v>
       </c>
@@ -780,8 +912,15 @@
       <c r="Q9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -809,8 +948,15 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>1</v>
       </c>
@@ -838,8 +984,15 @@
       <c r="Q11">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>1</v>
       </c>
@@ -867,8 +1020,15 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>1</v>
       </c>
@@ -896,8 +1056,15 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>1</v>
       </c>
@@ -925,8 +1092,15 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>1</v>
       </c>
@@ -954,8 +1128,15 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>1</v>
       </c>
@@ -983,8 +1164,15 @@
       <c r="Q16">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>1</v>
       </c>
@@ -1009,8 +1197,15 @@
       <c r="P17">
         <v>0.18983794078796401</v>
       </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>1</v>
       </c>
@@ -1035,8 +1230,15 @@
       <c r="P18">
         <v>0.193120159310182</v>
       </c>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>1</v>
       </c>
@@ -1064,8 +1266,15 @@
       <c r="Q19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1302,15 @@
       <c r="Q20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>1</v>
       </c>
@@ -1121,6 +1337,202 @@
       </c>
       <c r="Q21">
         <v>6</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE6C3B-B75B-4CC6-B6B1-1766083DE8E9}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>99778712.297324702</v>
+      </c>
+      <c r="H2">
+        <v>0.20366706624344</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>87360377.716682598</v>
+      </c>
+      <c r="H4">
+        <v>0.16193349265653101</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C1141-EF1C-487F-98B2-83336C35D258}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>87360377.716682598</v>
+      </c>
+      <c r="I2">
+        <v>0.16193349265653101</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos/Calculos_Modelos.xlsx
+++ b/Modelos/Calculos_Modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\Habi\Prueba Data Science\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F0C7C-4A85-44C1-9BC1-2D2A950A577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696C0E4E-56BE-408D-87FA-FCEBAB5D5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="2" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
   </bookViews>
   <sheets>
     <sheet name="precio_m2" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="15">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -1457,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C1141-EF1C-487F-98B2-83336C35D258}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,9 +1469,11 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1502,8 +1504,38 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1534,6 +1566,134 @@
       <c r="J2">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>91837620.141484603</v>
+      </c>
+      <c r="T2">
+        <v>0.17870844335130001</v>
+      </c>
+      <c r="U2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>92202532.692044497</v>
+      </c>
+      <c r="I3">
+        <v>0.18619268867327099</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>93065842.771723807</v>
+      </c>
+      <c r="I4">
+        <v>0.189967700342627</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>85558007.302483395</v>
+      </c>
+      <c r="I5">
+        <v>0.155435134275934</v>
+      </c>
+      <c r="J5">
+        <v>23</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modelos/Calculos_Modelos.xlsx
+++ b/Modelos/Calculos_Modelos.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\Habi\Prueba Data Science\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696C0E4E-56BE-408D-87FA-FCEBAB5D5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DA147-43B3-42CC-91A0-32D0BBFC87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
   </bookViews>
   <sheets>
     <sheet name="precio_m2" sheetId="1" r:id="rId1"/>
     <sheet name="precio" sheetId="2" r:id="rId2"/>
     <sheet name="gradient_boosting_regressor" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="17">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -83,6 +85,12 @@
   </si>
   <si>
     <t>learning_rate</t>
+  </si>
+  <si>
+    <t>tiempo (seg)</t>
+  </si>
+  <si>
+    <t>total (seg)</t>
   </si>
 </sst>
 </file>
@@ -458,7 +466,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,9 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C1141-EF1C-487F-98B2-83336C35D258}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1698,4 +1704,1157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE2DCD-D493-4763-B29E-8A125739EBA6}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>108836838.642533</v>
+      </c>
+      <c r="I2">
+        <v>0.23598969896548899</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L6" si="0">J2*60+K2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>89614505.019110903</v>
+      </c>
+      <c r="I3">
+        <v>0.171773581308128</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="1">L3-L2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>86411665.702996194</v>
+      </c>
+      <c r="I4">
+        <v>0.15692284260164199</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>85613689.315392405</v>
+      </c>
+      <c r="I5">
+        <v>0.15281816056382999</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>85273431.758980706</v>
+      </c>
+      <c r="I6">
+        <v>0.15125399629922401</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>84728826.098827302</v>
+      </c>
+      <c r="I7">
+        <v>0.14946708937592801</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="2">J7*60+K7</f>
+        <v>224</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>108749916.381917</v>
+      </c>
+      <c r="I9">
+        <v>0.23575608768974299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>84988479.287810996</v>
+      </c>
+      <c r="I10">
+        <v>0.15009822088604299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <v>84391744.628971502</v>
+      </c>
+      <c r="I11">
+        <v>0.14785954761744199</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>84950230.707255796</v>
+      </c>
+      <c r="I13">
+        <v>0.14994584860150401</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>84893507.164347395</v>
+      </c>
+      <c r="I14">
+        <v>0.14679982206491099</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>86127001.228536502</v>
+      </c>
+      <c r="I15">
+        <v>0.14494284455912401</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>84946606.966717601</v>
+      </c>
+      <c r="I16">
+        <v>0.14478522473997299</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB78FD7-905E-4D8A-BD97-93364FFF30EB}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G16:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>86787305.857740194</v>
+      </c>
+      <c r="H2">
+        <v>0.156709189049174</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K5" si="0">I2*60+J2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>86383720.708959997</v>
+      </c>
+      <c r="H3">
+        <v>0.15628308606545799</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3" si="1">K3-K2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>86265601.771454796</v>
+      </c>
+      <c r="H4">
+        <v>0.156221737571415</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="2">K4-K3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>85912407.506060198</v>
+      </c>
+      <c r="H5">
+        <v>0.155643048719527</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>85796293.600199595</v>
+      </c>
+      <c r="H6">
+        <v>0.155344757648371</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="3">I6*60+J6</f>
+        <v>66</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>86256799.633763701</v>
+      </c>
+      <c r="H8">
+        <v>0.154665862082317</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K11" si="4">I8*60+J8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>85365973.603782505</v>
+      </c>
+      <c r="H9">
+        <v>0.15331294858105499</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L10" si="5">K9-K8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>85262701.537846997</v>
+      </c>
+      <c r="H10">
+        <v>0.15324044398756501</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>85214901.440584198</v>
+      </c>
+      <c r="H11">
+        <v>0.15306921069792601</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L9:L18" si="6">K11-K10</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>85209143.576030001</v>
+      </c>
+      <c r="H13">
+        <v>0.15284780054544</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="7">I13*60+J13</f>
+        <v>69</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>91657883.710077196</v>
+      </c>
+      <c r="H15">
+        <v>0.169615085856301</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15" si="8">I15*60+J15</f>
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>88165617.449764997</v>
+      </c>
+      <c r="H16">
+        <v>0.16099432310692099</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="9">I16*60+J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>84298212.260726407</v>
+      </c>
+      <c r="H17">
+        <v>0.14901448598983799</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="10">I17*60+J17</f>
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>84626231.2665402</v>
+      </c>
+      <c r="H18">
+        <v>0.14362953482523499</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="11">I18*60+J18</f>
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modelos/Calculos_Modelos.xlsx
+++ b/Modelos/Calculos_Modelos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\Habi\Prueba Data Science\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DA147-43B3-42CC-91A0-32D0BBFC87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17C2EA0-9709-4BDF-9F62-A88409B530E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D278BB23-159C-48A0-BB88-7B063591FAE2}"/>
   </bookViews>
   <sheets>
     <sheet name="precio_m2" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8D8483-DCF5-4F2B-9C47-C419DAA7D73B}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AE2DCD-D493-4763-B29E-8A125739EBA6}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2653,7 @@
         <v>91</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L9:L18" si="6">K11-K10</f>
+        <f t="shared" ref="L11:L18" si="6">K11-K10</f>
         <v>43</v>
       </c>
     </row>
